--- a/Eye_Tracker_Raw_Data/LookTime/250ms/no_labels/Implicit Memory/Tadpole_ET_summary_IR_250ms_NoLabels_.0-..All.xlsx
+++ b/Eye_Tracker_Raw_Data/LookTime/250ms/no_labels/Implicit Memory/Tadpole_ET_summary_IR_250ms_NoLabels_.0-..All.xlsx
@@ -50,7 +50,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -355,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO87"/>
+  <dimension ref="A1:BI93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10323,7 +10324,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>123</v>
       </c>
@@ -10448,7 +10449,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>124</v>
       </c>
@@ -10573,7 +10574,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>125</v>
       </c>
@@ -10698,7 +10699,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>128</v>
       </c>
@@ -10823,7 +10824,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>126</v>
       </c>
@@ -10948,7 +10949,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>127</v>
       </c>
@@ -11073,7 +11074,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>129</v>
       </c>
@@ -11196,6 +11197,816 @@
       </c>
       <c r="AO87" s="2">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>130</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="G88" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="H88" s="3">
+        <v>0</v>
+      </c>
+      <c r="I88" s="3">
+        <v>0</v>
+      </c>
+      <c r="J88" s="3">
+        <v>0</v>
+      </c>
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>1.59</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>1.34</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>1.47</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>2.33</v>
+      </c>
+      <c r="AF88" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="AG88" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AH88" s="3">
+        <v>1.97</v>
+      </c>
+      <c r="AI88" s="3">
+        <v>1.56</v>
+      </c>
+      <c r="AJ88" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="AK88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL88" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="AM88" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="AN88" s="3">
+        <v>2.61</v>
+      </c>
+      <c r="AO88" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="AP88" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AQ88" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="AR88" s="3">
+        <v>3.01</v>
+      </c>
+      <c r="AS88" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AT88" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AU88" s="3">
+        <v>1.65</v>
+      </c>
+      <c r="AV88" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="AW88" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="AX88" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="AY88" s="3">
+        <v>2.67</v>
+      </c>
+      <c r="AZ88" s="3">
+        <v>1.67</v>
+      </c>
+      <c r="BA88" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="BB88" s="3">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="BC88" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="BD88" s="3">
+        <v>1.44</v>
+      </c>
+      <c r="BE88" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="BF88" s="3">
+        <v>2.13</v>
+      </c>
+      <c r="BG88" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="BH88" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="BI88" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>131</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>132</v>
+      </c>
+      <c r="B90" s="3">
+        <v>2.02</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1.84</v>
+      </c>
+      <c r="D90" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="E90" s="3">
+        <v>2.56</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="3">
+        <v>2.44</v>
+      </c>
+      <c r="H90" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="I90" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="J90" s="3">
+        <v>3.61</v>
+      </c>
+      <c r="K90" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="L90" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M90" s="3">
+        <v>1.79</v>
+      </c>
+      <c r="N90" s="3">
+        <v>0</v>
+      </c>
+      <c r="O90" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="P90" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="R90" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="S90" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="T90" s="3">
+        <v>1.47</v>
+      </c>
+      <c r="U90" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="V90" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="W90" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="X90" s="3">
+        <v>3.04</v>
+      </c>
+      <c r="Y90" s="3">
+        <v>1.38</v>
+      </c>
+      <c r="Z90" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AC90" s="3">
+        <v>1.38</v>
+      </c>
+      <c r="AD90" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="AE90" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="AF90" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG90" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH90" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="AI90" s="3">
+        <v>2.17</v>
+      </c>
+      <c r="AJ90" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="AK90" s="3">
+        <v>1.56</v>
+      </c>
+      <c r="AL90" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="AM90" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="AN90" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="AO90" s="3">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>133</v>
+      </c>
+      <c r="B91" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1.81</v>
+      </c>
+      <c r="D91" s="3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>1.87</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="J91" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K91" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="O91" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>1.49</v>
+      </c>
+      <c r="S91" s="3">
+        <v>2.08</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>2.62</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>1.93</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>1.19</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ91" s="3">
+        <v>2.61</v>
+      </c>
+      <c r="AK91" s="3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AL91" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="AM91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN91" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="AO91" s="3">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="92" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>134</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="C92" s="3">
+        <v>2.36</v>
+      </c>
+      <c r="D92" s="3">
+        <v>1.21</v>
+      </c>
+      <c r="E92" s="3">
+        <v>3.46</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="G92" s="3">
+        <v>3.21</v>
+      </c>
+      <c r="H92" s="3">
+        <v>3.59</v>
+      </c>
+      <c r="I92" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="J92" s="3">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="K92" s="3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="L92" s="3">
+        <v>3.55</v>
+      </c>
+      <c r="M92" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="N92" s="3">
+        <v>3.31</v>
+      </c>
+      <c r="O92" s="3">
+        <v>1.42</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="S92" s="3">
+        <v>3.86</v>
+      </c>
+      <c r="T92" s="3">
+        <v>3.15</v>
+      </c>
+      <c r="U92" s="3">
+        <v>1.07</v>
+      </c>
+      <c r="V92" s="3">
+        <v>3.81</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="X92" s="3">
+        <v>1.71</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>2.93</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>2.98</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>3.05</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="AF92" s="3">
+        <v>3.01</v>
+      </c>
+      <c r="AG92" s="3">
+        <v>1.69</v>
+      </c>
+      <c r="AH92" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="AI92" s="3">
+        <v>1.82</v>
+      </c>
+      <c r="AJ92" s="3">
+        <v>3.89</v>
+      </c>
+      <c r="AK92" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="AL92" s="3">
+        <v>2.73</v>
+      </c>
+      <c r="AM92" s="3">
+        <v>1.98</v>
+      </c>
+      <c r="AN92" s="3">
+        <v>2.76</v>
+      </c>
+      <c r="AO92" s="3">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>135</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1.46</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="E93" s="3">
+        <v>1.98</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0</v>
+      </c>
+      <c r="H93" s="3">
+        <v>2.95</v>
+      </c>
+      <c r="I93" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J93" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="K93" s="3">
+        <v>1.73</v>
+      </c>
+      <c r="L93" s="3">
+        <v>2.21</v>
+      </c>
+      <c r="M93" s="3">
+        <v>1.91</v>
+      </c>
+      <c r="N93" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="O93" s="3">
+        <v>2.13</v>
+      </c>
+      <c r="P93" s="3">
+        <v>1.44</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>1</v>
+      </c>
+      <c r="R93" s="3">
+        <v>1.32</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="W93" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="X93" s="3">
+        <v>1.29</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>2.96</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>1.77</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>3.74</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>1.21</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH93" s="3">
+        <v>1.92</v>
+      </c>
+      <c r="AI93" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="AJ93" s="3">
+        <v>1.52</v>
+      </c>
+      <c r="AK93" s="3">
+        <v>1.46</v>
+      </c>
+      <c r="AL93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM93" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="AN93" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AO93" s="3">
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
